--- a/System/BLOATWARE/List/Template.xlsx
+++ b/System/BLOATWARE/List/Template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="87">
   <si>
     <t>delete("/system/app/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,12 +40,6 @@
     <t>com.qualcomm.location.apk</t>
   </si>
   <si>
-    <t>DocumentsUI.apk</t>
-  </si>
-  <si>
-    <t>InterfacePermissions.apk</t>
-  </si>
-  <si>
     <t>PacProcessor.apk</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AMAPNetworkLocation.apk</t>
-  </si>
-  <si>
     <t>BugReport.apk</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
   </si>
   <si>
     <t>CellBroadcastReceiver.apk</t>
-  </si>
-  <si>
-    <t>CertInstaller.apk</t>
   </si>
   <si>
     <t>Cit.apk</t>
@@ -131,9 +119,6 @@
     <t>Mipay.apk</t>
   </si>
   <si>
-    <t>MiuiSuperMarket.apk</t>
-  </si>
-  <si>
     <t>MiuiVideo.apk</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>TrafficControl.apk</t>
   </si>
   <si>
-    <t>UserDictionaryProvider.apk</t>
-  </si>
-  <si>
     <t>VisualizationWallpapers.apk</t>
   </si>
   <si>
@@ -203,9 +185,6 @@
     <t>matcli.apk</t>
   </si>
   <si>
-    <t>miui.apk</t>
-  </si>
-  <si>
     <t>qcrilmsgtunnel.apk</t>
   </si>
   <si>
@@ -222,9 +201,6 @@
   </si>
   <si>
     <t>Browser.apk</t>
-  </si>
-  <si>
-    <t>CloudAppBackup.apk</t>
   </si>
   <si>
     <t>GooglePinyinIME.apk</t>
@@ -251,9 +227,6 @@
     <t>OneTimeInitializer.apk</t>
   </si>
   <si>
-    <t>ProxyHandler.apk</t>
-  </si>
-  <si>
     <t>SharedStorageBackup.apk</t>
   </si>
   <si>
@@ -266,10 +239,46 @@
     <t>com.qualcomm.msapm.apk</t>
   </si>
   <si>
-    <t>com.qualcomm.services.location.apk</t>
+    <t>BaiduNetworkLocation.apk</t>
   </si>
   <si>
-    <t>xtra_t_app.apk</t>
+    <t>DeskClock.apk</t>
+  </si>
+  <si>
+    <t>MiFinance.apk</t>
+  </si>
+  <si>
+    <t>MiuiCompass.apk</t>
+  </si>
+  <si>
+    <t>SoundRecorder.apk</t>
+  </si>
+  <si>
+    <t>SystemAdSolution.apk</t>
+  </si>
+  <si>
+    <t>TSMClient.apk</t>
+  </si>
+  <si>
+    <t>WAPPushManager.apk</t>
+  </si>
+  <si>
+    <t>CleanMaster.apk</t>
+  </si>
+  <si>
+    <t>CloudBackup.apk</t>
+  </si>
+  <si>
+    <t>Mipub.apk</t>
+  </si>
+  <si>
+    <t>MiuiGallery.apk</t>
+  </si>
+  <si>
+    <t>MiuiRadio.apk</t>
+  </si>
+  <si>
+    <t>MiuiVoip.apk</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
   <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B58"/>
+      <selection activeCell="D59" sqref="D1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,14 +668,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="str">
         <f>A1&amp;B1&amp;C1</f>
-        <v>delete("/system/app/AMAPNetworkLocation.apk");</v>
+        <v>delete("/system/app/AntHalService.apk");</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -675,14 +684,14 @@
         <v>delete("/system/app/</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D65" si="0">A2&amp;B2&amp;C2</f>
-        <v>delete("/system/app/AntHalService.apk");</v>
+        <f>A2&amp;B2&amp;C2</f>
+        <v>delete("/system/app/BaiduNetworkLocation.apk");</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -697,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A3&amp;B3&amp;C3</f>
         <v>delete("/system/app/BasicDreams.apk");</v>
       </c>
     </row>
@@ -713,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A4&amp;B4&amp;C4</f>
         <v>delete("/system/app/BrowserProviderProxy.apk");</v>
       </c>
     </row>
@@ -723,958 +732,961 @@
         <v>delete("/system/app/</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A5&amp;B5&amp;C5</f>
         <v>delete("/system/app/BugReport.apk");</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
-        <f t="shared" ref="A6:A66" si="1">A5</f>
+        <f t="shared" ref="A6:A66" si="0">A5</f>
         <v>delete("/system/app/</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A6&amp;B6&amp;C6</f>
         <v>delete("/system/app/Calculator.apk");</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A7&amp;B7&amp;C7</f>
         <v>delete("/system/app/CellBroadcastReceiver.apk");</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/CertInstaller.apk");</v>
+        <f>A8&amp;B8&amp;C8</f>
+        <v>delete("/system/app/Cit.apk");</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Cit.apk");</v>
+        <f>A9&amp;B9&amp;C9</f>
+        <v>delete("/system/app/CloudService.apk");</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/CloudService.apk");</v>
+        <f>A10&amp;B10&amp;C10</f>
+        <v>delete("/system/app/DMService.apk");</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/DMService.apk");</v>
+        <f>A11&amp;B11&amp;C11</f>
+        <v>delete("/system/app/DeskClock.apk");</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/DocumentsUI.apk");</v>
+        <f>A12&amp;B12&amp;C12</f>
+        <v>delete("/system/app/Email.apk");</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Email.apk");</v>
+        <f>A13&amp;B13&amp;C13</f>
+        <v>delete("/system/app/FileExplorer.apk");</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/FileExplorer.apk");</v>
+        <f>A14&amp;B14&amp;C14</f>
+        <v>delete("/system/app/GPStestSvc.apk");</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/GPStestSvc.apk");</v>
+        <f>A15&amp;B15&amp;C15</f>
+        <v>delete("/system/app/Galaxy4.apk");</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Galaxy4.apk");</v>
+        <f>A16&amp;B16&amp;C16</f>
+        <v>delete("/system/app/GameCenter.apk");</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/GameCenter.apk");</v>
+        <f>A17&amp;B17&amp;C17</f>
+        <v>delete("/system/app/GuardProvider.apk");</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/GuardProvider.apk");</v>
+        <f>A18&amp;B18&amp;C18</f>
+        <v>delete("/system/app/HTMLViewer.apk");</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/HTMLViewer.apk");</v>
+        <f>A19&amp;B19&amp;C19</f>
+        <v>delete("/system/app/HoloSpiralWallpaper.apk");</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/HoloSpiralWallpaper.apk");</v>
+        <f>A20&amp;B20&amp;C20</f>
+        <v>delete("/system/app/KingSoftCleaner.apk");</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/InterfacePermissions.apk");</v>
+        <f>A21&amp;B21&amp;C21</f>
+        <v>delete("/system/app/LiveWallpapers.apk");</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/KingSoftCleaner.apk");</v>
+        <f>A22&amp;B22&amp;C22</f>
+        <v>delete("/system/app/MagicSmokeWallpapers.apk");</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/LiveWallpapers.apk");</v>
+        <f>A23&amp;B23&amp;C23</f>
+        <v>delete("/system/app/MiAssistant.apk");</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/MagicSmokeWallpapers.apk");</v>
+        <f>A24&amp;B24&amp;C24</f>
+        <v>delete("/system/app/MiFinance.apk");</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/MiAssistant.apk");</v>
+        <f>A25&amp;B25&amp;C25</f>
+        <v>delete("/system/app/MiLinkService.apk");</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/MiLinkService.apk");</v>
+        <f>A26&amp;B26&amp;C26</f>
+        <v>delete("/system/app/MiWallpaper.apk");</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/MiWallpaper.apk");</v>
+        <f>A27&amp;B27&amp;C27</f>
+        <v>delete("/system/app/Mipay.apk");</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Mipay.apk");</v>
+        <f>A28&amp;B28&amp;C28</f>
+        <v>delete("/system/app/MiuiCompass.apk");</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/MiuiSuperMarket.apk");</v>
+        <f>A29&amp;B29&amp;C29</f>
+        <v>delete("/system/app/MiuiVideo.apk");</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/MiuiVideo.apk");</v>
+        <f>A30&amp;B30&amp;C30</f>
+        <v>delete("/system/app/NVItem.apk");</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/NVItem.apk");</v>
+        <f>A31&amp;B31&amp;C31</f>
+        <v>delete("/system/app/Nfc.apk");</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Nfc.apk");</v>
+        <f>A32&amp;B32&amp;C32</f>
+        <v>delete("/system/app/NoiseField.apk");</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/NoiseField.apk");</v>
+        <f>A33&amp;B33&amp;C33</f>
+        <v>delete("/system/app/Notes.apk");</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Notes.apk");</v>
+        <f>A34&amp;B34&amp;C34</f>
+        <v>delete("/system/app/PacProcessor.apk");</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/PacProcessor.apk");</v>
+        <f>A35&amp;B35&amp;C35</f>
+        <v>delete("/system/app/PaymentService.apk");</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/PaymentService.apk");</v>
+        <f>A36&amp;B36&amp;C36</f>
+        <v>delete("/system/app/PhotoTable.apk");</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/PhotoTable.apk");</v>
+        <f>A37&amp;B37&amp;C37</f>
+        <v>delete("/system/app/PicoTts.apk");</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/PicoTts.apk");</v>
+        <f>A38&amp;B38&amp;C38</f>
+        <v>delete("/system/app/PrintSpooler.apk");</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/PrintSpooler.apk");</v>
+        <f>A39&amp;B39&amp;C39</f>
+        <v>delete("/system/app/Provision.apk");</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Provision.apk");</v>
+        <f>A40&amp;B40&amp;C40</f>
+        <v>delete("/system/app/QComQMIPermissions.apk");</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/QComQMIPermissions.apk");</v>
+        <f>A41&amp;B41&amp;C41</f>
+        <v>delete("/system/app/QuickSearchBox.apk");</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/QuickSearchBox.apk");</v>
+        <f>A42&amp;B42&amp;C42</f>
+        <v>delete("/system/app/SVIService.apk");</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/SVIService.apk");</v>
+        <f>A43&amp;B43&amp;C43</f>
+        <v>delete("/system/app/SoundRecorder.apk");</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A44&amp;B44&amp;C44</f>
         <v>delete("/system/app/Stk.apk");</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/TrafficControl.apk");</v>
+        <f>A45&amp;B45&amp;C45</f>
+        <v>delete("/system/app/SystemAdSolution.apk");</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/UserDictionaryProvider.apk");</v>
+        <f>A46&amp;B46&amp;C46</f>
+        <v>delete("/system/app/TSMClient.apk");</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/VisualizationWallpapers.apk");</v>
+        <f>A47&amp;B47&amp;C47</f>
+        <v>delete("/system/app/TrafficControl.apk");</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/VoiceAssist.apk");</v>
+        <f>A48&amp;B48&amp;C48</f>
+        <v>delete("/system/app/VisualizationWallpapers.apk");</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/WfdService.apk");</v>
+        <f>A49&amp;B49&amp;C49</f>
+        <v>delete("/system/app/VoiceAssist.apk");</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/Whetstone.apk");</v>
+        <f>A50&amp;B50&amp;C50</f>
+        <v>delete("/system/app/WAPPushManager.apk");</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/XiaomiAccount.apk");</v>
+        <f>A51&amp;B51&amp;C51</f>
+        <v>delete("/system/app/WfdService.apk");</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/XiaomiServiceFramework.apk");</v>
+        <f>A52&amp;B52&amp;C52</f>
+        <v>delete("/system/app/Whetstone.apk");</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/fastdormancy.apk");</v>
+        <f>A53&amp;B53&amp;C53</f>
+        <v>delete("/system/app/XiaomiAccount.apk");</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/ims.apk");</v>
+        <f>A54&amp;B54&amp;C54</f>
+        <v>delete("/system/app/XiaomiServiceFramework.apk");</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/matcli.apk");</v>
+        <f>A55&amp;B55&amp;C55</f>
+        <v>delete("/system/app/fastdormancy.apk");</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/miui.apk");</v>
+        <f>A56&amp;B56&amp;C56</f>
+        <v>delete("/system/app/ims.apk");</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/qcrilmsgtunnel.apk");</v>
+        <f>A57&amp;B57&amp;C57</f>
+        <v>delete("/system/app/matcli.apk");</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/shutdownlistener.apk");</v>
+        <f>A58&amp;B58&amp;C58</f>
+        <v>delete("/system/app/qcrilmsgtunnel.apk");</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>delete("/system/app/</v>
+        <f t="shared" si="0"/>
+        <v>delete("/system/app/</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/app/");</v>
+        <f>A59&amp;B59&amp;C59</f>
+        <v>delete("/system/app/shutdownlistener.apk");</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D60:D65" si="1">A60&amp;B60&amp;C60</f>
         <v>delete("/system/app/");</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>delete("/system/app/</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>delete("/system/app/</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="str">
-        <f t="shared" si="0"/>
         <v>delete("/system/app/");</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>delete("/system/app/</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>delete("/system/app/</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="str">
-        <f t="shared" si="0"/>
         <v>delete("/system/app/");</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>delete("/system/app/</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>delete("/system/app/</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="str">
-        <f t="shared" si="0"/>
         <v>delete("/system/app/");</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>delete("/system/app/</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>delete("/system/app/</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="str">
-        <f t="shared" si="0"/>
         <v>delete("/system/app/");</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>delete("/system/app/</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>delete("/system/app/</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="str">
-        <f t="shared" si="0"/>
         <v>delete("/system/app/");</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/app/</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4858,7 +4870,7 @@
   <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B22"/>
+      <selection activeCell="D24" sqref="D1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4872,10 +4884,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4891,13 +4903,13 @@
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D65" si="0">A2&amp;B2&amp;C2</f>
+        <f>A2&amp;B2&amp;C2</f>
         <v>delete("/system/priv-app/BackupRestoreConfirmation.apk");</v>
       </c>
     </row>
@@ -4907,13 +4919,13 @@
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A3&amp;B3&amp;C3</f>
         <v>delete("/system/priv-app/BarcodeScanner.apk");</v>
       </c>
     </row>
@@ -4923,13 +4935,13 @@
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A4&amp;B4&amp;C4</f>
         <v>delete("/system/priv-app/Browser.apk");</v>
       </c>
     </row>
@@ -4939,3899 +4951,3905 @@
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/CloudAppBackup.apk");</v>
+        <f>A5&amp;B5&amp;C5</f>
+        <v>delete("/system/priv-app/CleanMaster.apk");</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
-        <f t="shared" ref="A6:A69" si="1">A5</f>
+        <f>A5</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/GooglePinyinIME.apk");</v>
+        <f>A6&amp;B6&amp;C6</f>
+        <v>delete("/system/priv-app/CloudBackup.apk");</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A6</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/InputDevices.apk");</v>
+        <f>A7&amp;B7&amp;C7</f>
+        <v>delete("/system/priv-app/GooglePinyinIME.apk");</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A7</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/MiGameCenterSDKService.apk");</v>
+        <f>A8&amp;B8&amp;C8</f>
+        <v>delete("/system/priv-app/InputDevices.apk");</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A8</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/MiuiHome.apk");</v>
+        <f>A9&amp;B9&amp;C9</f>
+        <v>delete("/system/priv-app/MiGameCenterSDKService.apk");</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A9</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/Mms.apk");</v>
+        <f>A10&amp;B10&amp;C10</f>
+        <v>delete("/system/priv-app/Mipub.apk");</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A10</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/Music.apk");</v>
+        <f>A11&amp;B11&amp;C11</f>
+        <v>delete("/system/priv-app/MiuiGallery.apk");</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A11</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/MusicFX.apk");</v>
+        <f>A12&amp;B12&amp;C12</f>
+        <v>delete("/system/priv-app/MiuiHome.apk");</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A12</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/OneTimeInitializer.apk");</v>
+        <f>A13&amp;B13&amp;C13</f>
+        <v>delete("/system/priv-app/MiuiRadio.apk");</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A13</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/ProxyHandler.apk");</v>
+        <f>A14&amp;B14&amp;C14</f>
+        <v>delete("/system/priv-app/MiuiVoip.apk");</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A14</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/SharedStorageBackup.apk");</v>
+        <f>A15&amp;B15&amp;C15</f>
+        <v>delete("/system/priv-app/Mms.apk");</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A15</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/Shell.apk");</v>
+        <f>A16&amp;B16&amp;C16</f>
+        <v>delete("/system/priv-app/Music.apk");</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A16</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/SmartcardService.apk");</v>
+        <f>A17&amp;B17&amp;C17</f>
+        <v>delete("/system/priv-app/MusicFX.apk");</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A17</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/Tag.apk");</v>
+        <f>A18&amp;B18&amp;C18</f>
+        <v>delete("/system/priv-app/OneTimeInitializer.apk");</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A18</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/com.qualcomm.location.apk");</v>
+        <f>A19&amp;B19&amp;C19</f>
+        <v>delete("/system/priv-app/SharedStorageBackup.apk");</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A19</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/com.qualcomm.msapm.apk");</v>
+        <f>A20&amp;B20&amp;C20</f>
+        <v>delete("/system/priv-app/Shell.apk");</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A20</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/com.qualcomm.services.location.apk");</v>
+        <f>A21&amp;B21&amp;C21</f>
+        <v>delete("/system/priv-app/SmartcardService.apk");</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A21</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/xtra_t_app.apk");</v>
+        <f>A22&amp;B22&amp;C22</f>
+        <v>delete("/system/priv-app/Tag.apk");</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>delete("/system/priv-app/</v>
+        <f>A22</f>
+        <v>delete("/system/priv-app/</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/");</v>
+        <f>A23&amp;B23&amp;C23</f>
+        <v>delete("/system/priv-app/com.qualcomm.location.apk");</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>delete("/system/priv-app/</v>
+        <f>A23</f>
+        <v>delete("/system/priv-app/</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>delete("/system/priv-app/");</v>
+        <f>A24&amp;B24&amp;C24</f>
+        <v>delete("/system/priv-app/com.qualcomm.msapm.apk");</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A24</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A25&amp;B25&amp;C25</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A25</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A26&amp;B26&amp;C26</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A26</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A27&amp;B27&amp;C27</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A27</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A28&amp;B28&amp;C28</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A28</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A29&amp;B29&amp;C29</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A29</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A30&amp;B30&amp;C30</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A30</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A31&amp;B31&amp;C31</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A31</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A32&amp;B32&amp;C32</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A32</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A33&amp;B33&amp;C33</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A33</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A34&amp;B34&amp;C34</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A34</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A35&amp;B35&amp;C35</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A35</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A36&amp;B36&amp;C36</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A36</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A37&amp;B37&amp;C37</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A37</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A38&amp;B38&amp;C38</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A38</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A39&amp;B39&amp;C39</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A39</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A40&amp;B40&amp;C40</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A40</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A41&amp;B41&amp;C41</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A41</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A42&amp;B42&amp;C42</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A42</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A43&amp;B43&amp;C43</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A43</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A44&amp;B44&amp;C44</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A44</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A45&amp;B45&amp;C45</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A45</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A46&amp;B46&amp;C46</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A46</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A47&amp;B47&amp;C47</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A47</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A48&amp;B48&amp;C48</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A48</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A49&amp;B49&amp;C49</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A49</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A50&amp;B50&amp;C50</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A50</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A51&amp;B51&amp;C51</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A51</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A52&amp;B52&amp;C52</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A52</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A53&amp;B53&amp;C53</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A53</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A54&amp;B54&amp;C54</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A54</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A55&amp;B55&amp;C55</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A55</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A56&amp;B56&amp;C56</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A56</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A57&amp;B57&amp;C57</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A57</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A58&amp;B58&amp;C58</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A58</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A59&amp;B59&amp;C59</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A59</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A60&amp;B60&amp;C60</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A60</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A61&amp;B61&amp;C61</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A61</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A62&amp;B62&amp;C62</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A62</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A63&amp;B63&amp;C63</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A63</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A64&amp;B64&amp;C64</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A64</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>A65&amp;B65&amp;C65</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A65</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D129" si="2">A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D129" si="0">A66&amp;B66&amp;C66</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A66</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A67</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A68</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
-        <f t="shared" ref="A70:A133" si="3">A69</f>
+        <f t="shared" ref="A70:A133" si="1">A69</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f t="shared" ref="D130:D193" si="4">A130&amp;B130&amp;C130</f>
+        <f t="shared" ref="D130:D193" si="2">A130&amp;B130&amp;C130</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="str">
-        <f t="shared" ref="A134:A197" si="5">A133</f>
+        <f t="shared" ref="A134:A197" si="3">A133</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D183" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D184" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f t="shared" ref="D194:D257" si="6">A194&amp;B194&amp;C194</f>
+        <f t="shared" ref="D194:D257" si="4">A194&amp;B194&amp;C194</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="str">
-        <f t="shared" ref="A198:A261" si="7">A197</f>
+        <f t="shared" ref="A198:A261" si="5">A197</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D205" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D207" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D210" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D213" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D214" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D216" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D217" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D219" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D220" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D221" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D223" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D225" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D228" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D229" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D231" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D232" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D235" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D237" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="238" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D238" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D241" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D243" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="244" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D244" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D247" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D248" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D249" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="250" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D250" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D252" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D253" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="254" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D255" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D257" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="3" t="str">
-        <f t="shared" ref="D258:D300" si="8">A258&amp;B258&amp;C258</f>
+        <f t="shared" ref="D258:D300" si="6">A258&amp;B258&amp;C258</f>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D259" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D260" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D261" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="str">
-        <f t="shared" ref="A262:A300" si="9">A261</f>
+        <f t="shared" ref="A262:A300" si="7">A261</f>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D262" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D263" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D264" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D265" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D267" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D268" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D269" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D270" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D271" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D272" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="273" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D273" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="274" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D274" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D275" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D276" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D277" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D278" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D279" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="280" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D280" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D281" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="282" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D282" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D283" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D284" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D285" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="286" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D286" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D287" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="288" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D288" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D289" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="290" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D290" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D291" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="292" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D292" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D293" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D294" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D295" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D296" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D297" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D298" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D299" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>delete("/system/priv-app/</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D300" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>delete("/system/priv-app/");</v>
       </c>
     </row>
